--- a/重庆二师_Dev/doc/二师业务数据库调研3.4.XLSX
+++ b/重庆二师_Dev/doc/二师业务数据库调研3.4.XLSX
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="7956"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="7956" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总体情况" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="OLE_LINK18" localSheetId="7">华三标准库!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -16192,7 +16192,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -20238,8 +20238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3097"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/重庆二师_Dev/doc/二师业务数据库调研3.4.XLSX
+++ b/重庆二师_Dev/doc/二师业务数据库调研3.4.XLSX
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="7956" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="总体情况" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5898" uniqueCount="4800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5899" uniqueCount="4802">
   <si>
     <t>系统名称</t>
   </si>
@@ -15301,6 +15301,14 @@
   </si>
   <si>
     <t>10.2.15.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orcl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一卡通，就业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -16190,10 +16198,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -16328,7 +16336,7 @@
         <v>4596</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>4800</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -16646,6 +16654,11 @@
       </c>
       <c r="L13" s="17" t="s">
         <v>4792</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>4801</v>
       </c>
     </row>
   </sheetData>
@@ -20238,7 +20251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3097"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
